--- a/output/期货量化实践_合约最后交易日期.xlsx
+++ b/output/期货量化实践_合约最后交易日期.xlsx
@@ -1397,7 +1397,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45553</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="8">
